--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1175581.445554986</v>
+        <v>1144338.574492955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358931</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075099</v>
+        <v>3522967.675855584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9987288.559206422</v>
+        <v>10396671.14092294</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>367.6097747287636</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5844206985234</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>57.74455817980835</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394803</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>186.8663669730196</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>225.7515694222545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>181.4741358095191</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>212.0685156039289</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>230.2634979541059</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>286.1752255188696</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>411.6977045533761</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825082</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229333</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>108.0151168112042</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>101.7806877295489</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>115.4009494335808</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958677</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183528</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>165.0140383262333</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>213.9189633675408</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.19915569517384</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>299.0836088433426</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>79.28604738508845</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>14.1709628329928</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>66.27128255607072</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>17.13387053928689</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>42.81113462701943</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.9296784859477</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>116.8853054826698</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.51369213499284</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>94.16481274941266</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>194.8026695426856</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1706059301397</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>147.4019814764075</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>195.8155841663235</v>
       </c>
     </row>
     <row r="44">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2013.317548404538</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C2" t="n">
-        <v>2013.317548404538</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="D2" t="n">
-        <v>1655.051849797788</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="E2" t="n">
-        <v>1269.263597199543</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>858.2776924099358</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>440.3138843081226</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>113.1191643441255</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,22 +4348,22 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
         <v>2366.086203674652</v>
@@ -4375,7 +4375,7 @@
         <v>2013.317548404538</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.317548404538</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1996.720750323069</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1996.720750323069</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1996.720750323069</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1996.720750323069</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,28 +4649,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E7" t="n">
-        <v>663.910013048764</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.716165713678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>390.716165713678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>390.716165713678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>390.716165713678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>390.716165713678</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>390.716165713678</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628376</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284805</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014691</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y8" t="n">
-        <v>777.3160057777998</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036444</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1540.921096014691</v>
+        <v>2082.804004174235</v>
       </c>
       <c r="C11" t="n">
-        <v>1171.95857907428</v>
+        <v>2082.804004174235</v>
       </c>
       <c r="D11" t="n">
-        <v>1171.95857907428</v>
+        <v>1724.538305567485</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117851</v>
+        <v>1338.75005296924</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>927.7641481796329</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224072</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628376</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284805</v>
+        <v>3212.311831484283</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014691</v>
+        <v>2859.543176214169</v>
       </c>
       <c r="X11" t="n">
-        <v>1540.921096014691</v>
+        <v>2859.543176214169</v>
       </c>
       <c r="Y11" t="n">
-        <v>1540.921096014691</v>
+        <v>2469.403844238357</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204942</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615927</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572644</v>
+        <v>907.7817392985478</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315295</v>
+        <v>1548.327088765652</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1767.497760227163</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>325.6879402326642</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="C13" t="n">
-        <v>156.7517573047573</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="D13" t="n">
-        <v>156.7517573047573</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E13" t="n">
-        <v>156.7517573047573</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F13" t="n">
-        <v>156.7517573047573</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064341</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064341</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064341</v>
+        <v>866.4861918383683</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064341</v>
+        <v>640.8569951507333</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064341</v>
+        <v>351.704818728413</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064341</v>
+        <v>351.704818728413</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064341</v>
+        <v>351.704818728413</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064341</v>
+        <v>351.704818728413</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.336405062904</v>
+        <v>351.704818728413</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1748.986667826852</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1380.024150886441</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>666.0988071604015</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.629876389911</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216833</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>3583.023140741551</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>3583.023140741551</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>3251.96025339798</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2899.191598127866</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2525.725839866786</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>2135.586507890974</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>522.0794512893253</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.69838933464703</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="C16" t="n">
-        <v>97.69838933464703</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="D16" t="n">
-        <v>97.69838933464703</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="E16" t="n">
-        <v>97.69838933464703</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="F16" t="n">
-        <v>97.69838933464703</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222301</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230481</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422856</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783895</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669882</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165604</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>907.2456297917881</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="X16" t="n">
-        <v>500.1394333084169</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="Y16" t="n">
-        <v>279.3468541648867</v>
+        <v>73.99179512662053</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2333.305065052698</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>1964.342548112286</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1606.076849505535</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.288596907291</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>809.3026921176836</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>392.2149103541111</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403561</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3483.509995353711</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3483.509995353711</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3110.044237092631</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2719.904905116819</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835158</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>522.0794512893251</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.440991155443</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1205.938327510047</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1452.219619273625</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.655628026347</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1053.52328901508</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>846.0830042674853</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>846.0830042674853</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>846.0830042674853</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>591.3985160615985</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>301.9813460246378</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>73.9917951266205</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9917951266205</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2218.321938686441</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>1849.359421746029</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1491.093723139279</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1105.305470541034</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>694.3195657514268</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3368.526868987454</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3368.526868987454</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>2995.061110726374</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2604.921778750563</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835158</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893251</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1205.938327510047</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273625</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026347</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.0787116772149</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>154.0787116772149</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0787116772149</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0787116772149</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>154.0787116772149</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585963</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1073.926476585963</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1073.926476585963</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="V22" t="n">
-        <v>1073.926476585963</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W22" t="n">
-        <v>784.5093065490021</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X22" t="n">
-        <v>556.5197556509847</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y22" t="n">
-        <v>335.7271765074546</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
         <v>1198.760773441947</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>3492.843747251887</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.7169704793943</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>591.7807875514874</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>591.7807875514874</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>443.8676939690943</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>443.8676939690943</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>275.6923722889148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793943</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6457,19 +6457,19 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>229.0333923118344</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>378.1030765138943</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>624.8682044203583</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3969.364880169633</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C31" t="n">
-        <v>3800.428697241726</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>3650.312057829391</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>3502.398964246997</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143403</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.805924143403</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="W31" t="n">
-        <v>4371.805924143403</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X31" t="n">
-        <v>4371.805924143403</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y31" t="n">
-        <v>4151.013344999873</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>531.109187020113</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>362.1730040922062</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>362.1730040922062</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1442.84183405791</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1242.921823973462</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1019.136408762968</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>730.0077699765258</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>475.3232817706389</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>475.3232817706389</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X34" t="n">
-        <v>247.3337308726216</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.3337308726216</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3554.271366390831</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C37" t="n">
-        <v>3554.271366390831</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D37" t="n">
-        <v>3554.271366390831</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3554.271366390831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>3782.260917288848</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>3782.260917288848</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>3554.271366390831</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>3554.271366390831</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,64 +7162,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.0685056491545</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1323227212476</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>260.0156833089119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>260.0156833089119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793943</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7396,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.025380177693</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1060.896741391251</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1060.896741391251</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1060.896741391251</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1060.896741391251</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916676</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916676</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916676</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4741.167820987513</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4741.167820987513</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4452.039182201071</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>4197.354693995184</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>3907.937523958223</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>3679.947973060206</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916676</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451766</v>
+        <v>20.72114122105788</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617264028</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9248,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>104.6241510367943</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>48.10560617264096</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>48.10560617264096</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814714</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>91.23759968302119</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22549,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>14.32059534349816</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>93.34689554633786</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,13 +22707,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>88.68940446676082</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22722,7 +22722,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -22752,16 +22752,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680297</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>178.406524797988</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.0006890478804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>142.448636954838</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>115.683742866206</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.01837628787183</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>95.7551445533922</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.219199392560654</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>71.81686337073313</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>65.52911452950197</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>97.25091368138527</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>123.9919488199112</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176916</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>58.35886639452539</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>113.8332951025941</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>108.9740259726176</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>113.8332951025942</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>87.63472916948199</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>272.0663895655845</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>82.64254581146541</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>204.4136905191024</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>102.6099133959118</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>13.61788257244154</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>29.54865716389932</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.45066026879995</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>16.25443271485932</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>23.78198380940921</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.322962533237842</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>74.14557958198174</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>22.76906918577129</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>3.118140440917699</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>734997.6231445117</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734997.6231445117</v>
+        <v>851553.6159369525</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734997.6231445117</v>
+        <v>851553.6159369525</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>851553.6159369524</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>851553.6159369523</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>303610.2405165453</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165457</v>
+        <v>354622.4384779895</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165454</v>
+        <v>354622.4384779896</v>
       </c>
       <c r="G2" t="n">
-        <v>354622.4384779895</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="H2" t="n">
-        <v>354622.4384779896</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="M2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="N2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="O2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
         <v>410580.5127245943</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>248146.7686188428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.6520004548</v>
+        <v>263762.8892659104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.133248588303104e-10</v>
+        <v>62453.05588965295</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704776</v>
+        <v>69864.88484991116</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496504</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="F4" t="n">
-        <v>27086.83710496504</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="G4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396303.5538663738</v>
+        <v>-402371.9676121928</v>
       </c>
       <c r="C6" t="n">
-        <v>193664.3253481709</v>
+        <v>187595.9116023518</v>
       </c>
       <c r="D6" t="n">
-        <v>193664.3253481709</v>
+        <v>187595.9116023518</v>
       </c>
       <c r="E6" t="n">
-        <v>227291.9253481712</v>
+        <v>8924.079169988137</v>
       </c>
       <c r="F6" t="n">
-        <v>227291.9253481709</v>
+        <v>257070.8477888309</v>
       </c>
       <c r="G6" t="n">
-        <v>24292.45725031699</v>
+        <v>31681.09866337501</v>
       </c>
       <c r="H6" t="n">
-        <v>260710.1092507719</v>
+        <v>295443.9879292853</v>
       </c>
       <c r="I6" t="n">
-        <v>40886.41958990761</v>
+        <v>295443.9879292852</v>
       </c>
       <c r="J6" t="n">
-        <v>119995.359996414</v>
+        <v>119020.7687366924</v>
       </c>
       <c r="K6" t="n">
-        <v>296418.5791890068</v>
+        <v>295443.9879292853</v>
       </c>
       <c r="L6" t="n">
-        <v>296418.5791890069</v>
+        <v>295443.9879292853</v>
       </c>
       <c r="M6" t="n">
-        <v>296418.5791890068</v>
+        <v>232990.9320396324</v>
       </c>
       <c r="N6" t="n">
-        <v>296418.5791890071</v>
+        <v>295443.9879292853</v>
       </c>
       <c r="O6" t="n">
-        <v>236108.9920519591</v>
+        <v>225579.1030793742</v>
       </c>
       <c r="P6" t="n">
-        <v>296418.5791890069</v>
+        <v>295443.9879292853</v>
       </c>
     </row>
   </sheetData>
@@ -26740,43 +26740,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380637</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827566</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>215.7324361209769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>215.7324361209768</v>
+        <v>236.9063051160367</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160367</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>250.6101663282008</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282006</v>
+        <v>290.3162041708167</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>250.6101663282008</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282004</v>
+        <v>290.3162041708165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282008</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>290.3162041708167</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633794</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473551</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141106</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188912</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>50.4465972703498</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372664</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078609</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>6.05628366564444</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813576</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302236</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175841</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383798</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678006</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055153</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>91.9798486765154</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937397</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779014</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074815</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359661</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>401.986115782251</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426693</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810504</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985299</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182831</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070424</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512816</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842447</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900646</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.719792594707</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607454</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080785</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308305</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897132</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888312</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838206995</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490362</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104762</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937807</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685357</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522784</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712521</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671567</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308303</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784122</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676922</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712521</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671567</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308303</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784122</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676922</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031297</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262937</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355132</v>
+        <v>221.384516627789</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713951</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873147</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391272</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040856</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730413</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513593</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588824</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748666</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>229.4160469348666</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>200.6633754067313</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269921</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927637</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>233.043895010573</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.45284789935323</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513591</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584801</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>332.7559639452619</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>353.8818559928187</v>
       </c>
       <c r="M18" t="n">
-        <v>181.3104407622262</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>248.7689815793721</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105729</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513591</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584801</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452619</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3104407622262</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>248.7689815793721</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,13 +36445,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>133.1477786379279</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375759</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1144338.574492955</v>
+        <v>1170702.81926314</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332965</v>
+        <v>1737911.48435893</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855584</v>
+        <v>4541732.173075107</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10396671.14092294</v>
+        <v>9987288.559206417</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>367.6097747287636</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>120.1202051330288</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57.74455817980835</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51.30079766335505</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>186.8663669730196</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>105.9455272731789</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9.548663292166818</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>212.0685156039289</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>163.2123634091011</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364051</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6977045533761</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>74.63526939092476</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.0151168112042</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>159.4943079234651</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>115.4009494335808</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958677</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183528</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.0140383262333</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>315.0408840752157</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>154.6528871281404</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>252.3599939350771</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.9068180766435</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>45.44580843958687</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183545</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459917</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>105.4160224644295</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>275.7732027483522</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>154.6528871281404</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>212.6518631149661</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.9068180766435</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>45.44580843958687</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183545</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459917</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>14.1709628329928</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>175.3650735731467</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>17.13387053928689</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.9296784859477</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>5.127138000634323</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>116.8853054826698</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5009259672063</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.8026695426856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>195.8155841663235</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>195.8155841663235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>195.8155841663236</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1623.178216428726</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1254.215699488314</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1254.215699488314</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2013.546485980901</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>2013.546485980901</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>2013.546485980901</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>270.0191909330953</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>270.0191909330953</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>676.3099966676917</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>676.3099966676917</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>676.3099966676917</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>676.3099966676917</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1583.378275356799</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.378275356799</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.378275356799</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4676,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207637</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240418</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>1194.534876920951</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1194.534876920951</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2033.097625012799</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2033.097625012799</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.631866751719</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1269.492534775907</v>
+        <v>1581.134716985073</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2082.804004174235</v>
+        <v>1289.354447327928</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.804004174235</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D11" t="n">
-        <v>1724.538305567485</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E11" t="n">
-        <v>1338.75005296924</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F11" t="n">
-        <v>927.7641481796329</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G11" t="n">
-        <v>511.9078809540005</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>193.6847657265099</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403564</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.9120654066</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449756</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331026</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331026</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.374718827854</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>3543.374718827854</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U11" t="n">
-        <v>3543.374718827854</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V11" t="n">
-        <v>3212.311831484283</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W11" t="n">
-        <v>2859.543176214169</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X11" t="n">
-        <v>2859.543176214169</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y11" t="n">
-        <v>2469.403844238357</v>
+        <v>1289.354447327928</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4201994324299</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>907.7817392985478</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.327088765652</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.497760227163</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2316.933768979885</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.5986401312371</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C13" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>866.4861918383683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>640.8569951507333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>351.704818728413</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>351.704818728413</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>351.704818728413</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X13" t="n">
-        <v>351.704818728413</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y13" t="n">
-        <v>351.704818728413</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1748.986667826852</v>
+        <v>991.2778500677816</v>
       </c>
       <c r="C14" t="n">
-        <v>1380.024150886441</v>
+        <v>991.2778500677816</v>
       </c>
       <c r="D14" t="n">
-        <v>1021.75845227969</v>
+        <v>633.0121514610312</v>
       </c>
       <c r="E14" t="n">
-        <v>1021.75845227969</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>610.7725474900825</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>193.6847657265099</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403566</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604015</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.9120654066</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389911</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449756</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216833</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556126</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331026</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331026</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331026</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T14" t="n">
-        <v>3583.023140741551</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>3583.023140741551</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V14" t="n">
-        <v>3251.96025339798</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W14" t="n">
-        <v>2899.191598127866</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="X14" t="n">
-        <v>2525.725839866786</v>
+        <v>991.2778500677816</v>
       </c>
       <c r="Y14" t="n">
-        <v>2135.586507890974</v>
+        <v>991.2778500677816</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835159</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893253</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1253.562877620961</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222301</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230481</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422856</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783895</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669882</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165604</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>907.2456297917881</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U16" t="n">
-        <v>618.093453369468</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V16" t="n">
-        <v>363.4089651635811</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W16" t="n">
-        <v>73.99179512662053</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.99179512662053</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>392.214910354111</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403556</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514089</v>
+        <v>666.0988071603997</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406597</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389907</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>2477.937544449752</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216827</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.41379555612</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633102</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>3699.58975633102</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>3543.374718827848</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3543.374718827848</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>3289.683015572999</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>2958.620128229428</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>2605.851472959314</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>2605.851472959314</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2350.942388176408</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>192.6510469835155</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>522.0794512893244</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>1026.440991155442</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1253.562877620964</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1452.219619273627</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2001.655628026348</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507184</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>349.079470903388</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>349.079470903388</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>349.079470903388</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>242.598640131237</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>242.598640131237</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222297</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>359.8727196230473</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>565.1423203422845</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783881</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669862</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1070.508157165601</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585961</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585961</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>866.486191838366</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>866.486191838366</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>866.486191838366</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>866.486191838366</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>577.0690218014054</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>349.079470903388</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>349.079470903388</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>1924.678223539697</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>666.0988071604002</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406598</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389907</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>2477.937544449752</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3025.098749216828</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.41379555612</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633102</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>3699.58975633102</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>3543.374718827848</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095559</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>3074.88315384071</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3074.88315384071</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3074.88315384071</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>2701.41739557963</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2311.278063603818</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>192.6510469835155</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>522.0794512893244</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>1026.440991155442</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1253.562877620964</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1452.219619273627</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2001.655628026348</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507184</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>242.9279780545273</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>73.9917951266204</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222297</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>359.8727196230473</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>565.1423203422845</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783881</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669862</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1070.508157165601</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585961</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585961</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>866.486191838366</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>640.8569951507309</v>
       </c>
       <c r="U22" t="n">
-        <v>1060.896741391251</v>
+        <v>640.8569951507309</v>
       </c>
       <c r="V22" t="n">
-        <v>1060.896741391251</v>
+        <v>640.8569951507309</v>
       </c>
       <c r="W22" t="n">
-        <v>1060.896741391251</v>
+        <v>463.7205571980575</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.896741391251</v>
+        <v>463.7205571980575</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>242.9279780545273</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555215</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1281.689320534781</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1281.689320534781</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>1281.689320534781</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.689320534781</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6557,10 +6557,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D31" t="n">
         <v>560.1954542207687</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1288.886292289268</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1288.886292289268</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.886292289268</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1288.886292289268</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X31" t="n">
-        <v>1060.896741391251</v>
+        <v>949.9242162922058</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>531.109187020113</v>
+        <v>672.7698012891906</v>
       </c>
       <c r="C34" t="n">
-        <v>362.1730040922062</v>
+        <v>503.8336183612837</v>
       </c>
       <c r="D34" t="n">
-        <v>362.1730040922062</v>
+        <v>353.7169789489479</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>205.8038853665548</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6894,16 +6894,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>531.109187020113</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X34" t="n">
-        <v>531.109187020113</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y34" t="n">
-        <v>531.109187020113</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X37" t="n">
-        <v>441.900558318119</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y37" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,25 +7478,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.9805482336712</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>241.9805482336712</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>241.9805482336712</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1301.12275119798</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1077.337335987485</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X46" t="n">
-        <v>241.9805482336712</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y46" t="n">
-        <v>241.9805482336712</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928668</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>20.72114122105788</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617264028</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>104.6241510367943</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>48.10560617264514</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776746</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>48.10560617264514</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14.32059534349816</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>229.1207635843842</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22707,28 +22707,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>88.68940446676082</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>95.36439431680282</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22761,10 +22761,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>178.406524797988</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>263.7855734052902</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22956,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>72.67053247541037</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,16 +22989,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23026,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>345.1343783285162</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>115.683742866206</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>61.8227420489832</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>1.219199392560654</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>311.6026692651288</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.81686337073313</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>222.4360621487967</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>97.25091368138527</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176916</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>58.35886639452539</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938907</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.6518631149661</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>133.8779447209765</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>41.01794018213967</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176933</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>61.34209567542487</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>89.49968902265533</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752157</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938907</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176933</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>272.0663895655845</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>111.1579247634443</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>204.4136905191024</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>13.61788257244154</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.5825173884028</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>29.54865716389932</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>37.92012205572496</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25134,16 +25134,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.78198380940921</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>29.89407122271365</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.76906918577129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>3.118140440917699</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.105225817279688</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>734997.6231445117</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851553.6159369525</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>851553.6159369525</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979408.0102536819</v>
+        <v>851553.6159369518</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>979408.0102536819</v>
+        <v>851553.6159369518</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979408.0102536818</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="16">
@@ -26322,28 +26322,28 @@
         <v>303610.2405165456</v>
       </c>
       <c r="E2" t="n">
-        <v>354622.4384779895</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="F2" t="n">
-        <v>354622.4384779896</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="G2" t="n">
-        <v>410580.5127245944</v>
+        <v>354622.4384779894</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245944</v>
+        <v>354622.4384779894</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="L2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="M2" t="n">
         <v>410580.5127245943</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188428</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>236417.6520004537</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595991004</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965295</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991116</v>
+        <v>60309.58713704754</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>24740.78594361633</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
-        <v>24740.78594361633</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361635</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361635</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360138</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360138</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>69171.54328360126</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>69171.54328360126</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402371.9676121928</v>
+        <v>-396910.3952409555</v>
       </c>
       <c r="C6" t="n">
-        <v>187595.9116023518</v>
+        <v>193057.4839735891</v>
       </c>
       <c r="D6" t="n">
-        <v>187595.9116023518</v>
+        <v>193057.4839735892</v>
       </c>
       <c r="E6" t="n">
-        <v>8924.079169988137</v>
+        <v>226685.0839735891</v>
       </c>
       <c r="F6" t="n">
-        <v>257070.8477888309</v>
+        <v>226685.0839735892</v>
       </c>
       <c r="G6" t="n">
-        <v>31681.09866337501</v>
+        <v>23928.53110412402</v>
       </c>
       <c r="H6" t="n">
-        <v>295443.9879292853</v>
+        <v>260346.1831045777</v>
       </c>
       <c r="I6" t="n">
-        <v>295443.9879292852</v>
+        <v>40788.96046393436</v>
       </c>
       <c r="J6" t="n">
-        <v>119020.7687366924</v>
+        <v>119897.9008704418</v>
       </c>
       <c r="K6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630347</v>
       </c>
       <c r="L6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630349</v>
       </c>
       <c r="M6" t="n">
-        <v>232990.9320396324</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="N6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="O6" t="n">
-        <v>225579.1030793742</v>
+        <v>236011.5329259872</v>
       </c>
       <c r="P6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630348</v>
       </c>
     </row>
   </sheetData>
@@ -26740,28 +26740,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380637</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>593.4761003380623</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>593.4761003380623</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="E4" t="n">
-        <v>924.8974390827565</v>
-      </c>
       <c r="F4" t="n">
-        <v>924.8974390827566</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.897439082755</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.897439082755</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209769</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>215.7324361209758</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160379</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282008</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708167</v>
+        <v>250.6101663281995</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>290.3162041708179</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282008</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708165</v>
+        <v>250.6101663281995</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282008</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708167</v>
+        <v>250.6101663281995</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055153</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>91.9798486765154</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937397</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779014</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074815</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359661</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.986115782251</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426693</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810504</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985299</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182831</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070424</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512816</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842447</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900646</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.719792594707</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607454</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080785</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308305</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897132</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888312</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206995</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490362</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104762</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937807</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685357</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522784</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198239</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>24.43391804055147</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651519</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937392</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>303.4869768779007</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>376.5024309712514</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>418.9314987074806</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>425.7102483359651</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>401.9861157822501</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426685</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>257.6431848457565</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>149.869117941149</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>54.36718245810492</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>10.4439864491653</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.27653349884036</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985296</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>43.95082441182821</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>120.6044214847378</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>206.1321659070419</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>277.1701353512809</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>323.4444746842439</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>332.0050874900638</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>303.7197925947063</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>243.7619099671562</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>162.948381360745</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080768</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784616</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308293</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897112</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888309</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206972</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>32.18391704784116</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490345</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790235</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889946</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>167.7591540676919</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441083</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>151.268301771413</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720914</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>89.61489115104742</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>48.12020970937795</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685353</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>4.572684707522773</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.05837469839390783</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198239</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>24.43391804055147</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651519</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937392</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>303.4869768779007</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>376.5024309712514</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>418.9314987074806</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>425.7102483359651</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>401.9861157822501</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426685</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>257.6431848457565</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.869117941149</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>54.36718245810492</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.4439864491653</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.27653349884036</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985296</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>43.95082441182821</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>120.6044214847378</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>206.1321659070419</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>277.1701353512809</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>323.4444746842439</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>332.0050874900638</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>303.7197925947063</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>243.7619099671562</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>162.948381360745</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080768</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784616</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308293</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897112</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888309</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206972</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>32.18391704784116</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490345</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790235</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889946</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>167.7591540676919</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441083</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.268301771413</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720914</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>89.61489115104742</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>48.12020970937795</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685353</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>4.572684707522773</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.05837469839390783</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.755963945262</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122262</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>221.384516627789</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528265</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391272</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040856</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730413</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513593</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588824</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.755963945262</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748666</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348666</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067313</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269921</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927637</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.043895010573</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.45284789935323</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391267</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040849</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>558.3972305517145</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>638.0987989730403</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>633.6441091513584</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>552.6880856233087</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>433.6515619588816</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>247.6524856312117</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>119.8578301584799</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>332.7559639452616</v>
       </c>
       <c r="L18" t="n">
-        <v>353.8818559928187</v>
+        <v>509.4561008748659</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>229.4160469348707</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>200.6633754067305</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>554.9858674269914</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>428.2502711927632</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>233.0438950105726</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531407</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>186.6999948493108</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295325</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>207.9023887233369</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854527</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369849</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>3.452847899353031</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391267</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040849</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>558.3972305517145</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>638.0987989730403</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>633.6441091513584</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>552.6880856233087</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>433.6515619588816</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>247.6524856312117</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>119.8578301584799</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>332.7559639452616</v>
       </c>
       <c r="L21" t="n">
-        <v>537.666887533699</v>
+        <v>509.4561008748659</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>229.4160469348707</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>200.6633754067305</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>554.9858674269914</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>428.2502711927632</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.0438950105726</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531407</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>186.6999948493108</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295325</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>207.9023887233369</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854527</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369849</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>3.452847899353031</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>464.3977765279033</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>510.0474576375759</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
